--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOSHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DBABA-E121-43BA-9375-60185F43B0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E465F-D79A-48A0-B1B7-A1C486C4C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOSHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E465F-D79A-48A0-B1B7-A1C486C4C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A7365-200B-421F-BD33-55FD96845DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1820" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Data Analyst</t>
   </si>
   <si>
-    <t>Buisiness Analyst</t>
-  </si>
-  <si>
     <t>Aamodit Saini</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,414 +581,414 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1"/>
     </row>
